--- a/2402-2406/1-CELLULAIRES ET IoT/Projet/NEW-Link_Budget.xlsx
+++ b/2402-2406/1-CELLULAIRES ET IoT/Projet/NEW-Link_Budget.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lmroueh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16273\GitHub\ISEP-Documents\2402-2406\1-CELLULAIRES ET IoT\Projet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0A2E83-66EC-1041-A85C-EDBBBAE24CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FBD3E1-3075-4FD7-92C3-59E8BEC2C6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="500" windowWidth="28040" windowHeight="16440" activeTab="2" xr2:uid="{6EBB6520-873F-9843-B226-DC1D1269A209}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13000" activeTab="2" xr2:uid="{6EBB6520-873F-9843-B226-DC1D1269A209}"/>
   </bookViews>
   <sheets>
     <sheet name="Radio Planning" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,8 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Downlink : Access point To mobile</t>
@@ -66,7 +67,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -79,7 +80,8 @@
         <b/>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="等线"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>Uplink : Mobile to access point</t>
@@ -88,7 +90,7 @@
       <rPr>
         <sz val="14"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -409,18 +411,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -428,27 +430,37 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -699,7 +711,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,1055 +726,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="fr-FR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$J$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5 MHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil3!$F$58:$F$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$J$58:$J$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-15.833416666666668</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12.333500000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-8.8335833333333333</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-5.3336666666666659</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8337499999999989</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.6661666666666681</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.1660833333333347</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6660000000000021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12.16591666666667</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>15.665833333333337</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E79-154A-82BC-AF41D56721EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Feuil3!$K$57</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15 MHz</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>Feuil3!$F$58:$F$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Feuil3!$K$58:$K$67</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>-8.6144403892944048</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-5.0958272506082736</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.5772141119221419</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9413990267639898</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.4600121654501219</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.9786253041362531</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12.497238442822384</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16.015851581508517</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.534464720194649</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>23.05307785888078</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E79-154A-82BC-AF41D56721EC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="688645744"/>
-        <c:axId val="688647456"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="688645744"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="688647456"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="688647456"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="688645744"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Graphique 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A1F93AD-CCB7-E0C4-1FC6-7A8AF15CE40F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2084,18 +1049,18 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="25" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="13.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.83203125" style="1"/>
-    <col min="6" max="6" width="26.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.15234375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.15234375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.84375" style="1"/>
+    <col min="6" max="6" width="26.3046875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="20.3046875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -2109,7 +1074,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +1096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2143,7 +1108,7 @@
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2171,7 +1136,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -2193,7 +1158,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2215,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2230,12 +1195,12 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +1224,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2267,7 +1232,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
         <v>16</v>
       </c>
@@ -2279,7 +1244,7 @@
       <c r="G12" s="21"/>
       <c r="H12" s="21"/>
     </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>17</v>
       </c>
@@ -2301,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -2323,7 +1288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F15" s="2" t="s">
         <v>23</v>
       </c>
@@ -2335,7 +1300,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2350,7 +1315,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F17" s="2" t="s">
         <v>14</v>
       </c>
@@ -2362,7 +1327,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2370,7 +1335,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
@@ -2392,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2400,7 +1365,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
@@ -2424,12 +1389,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -2447,7 +1412,7 @@
         <v>124.64394712358639</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -2478,6 +1443,7 @@
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="F12:H12"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2490,16 +1456,16 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.69140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="38" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="20.4609375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.84375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>45</v>
@@ -2511,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="22" t="s">
         <v>32</v>
       </c>
@@ -2523,7 +1489,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="23"/>
       <c r="B3" s="2" t="s">
         <v>30</v>
@@ -2535,7 +1501,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="23"/>
       <c r="B4" s="2" t="s">
         <v>37</v>
@@ -2548,7 +1514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23"/>
       <c r="B5" s="2" t="s">
         <v>31</v>
@@ -2559,7 +1525,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="23"/>
       <c r="B6" s="2" t="s">
         <v>38</v>
@@ -2571,7 +1537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="23"/>
       <c r="B7" s="2" t="s">
         <v>33</v>
@@ -2582,7 +1548,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="23"/>
       <c r="B8" s="2" t="s">
         <v>42</v>
@@ -2592,7 +1558,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="23"/>
       <c r="B9" s="2" t="s">
         <v>34</v>
@@ -2605,7 +1571,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="23"/>
       <c r="B10" s="8" t="s">
         <v>35</v>
@@ -2620,19 +1586,19 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
         <v>45</v>
@@ -2644,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
         <v>44</v>
       </c>
@@ -2658,7 +1624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24"/>
       <c r="B16" s="2" t="s">
         <v>47</v>
@@ -2671,7 +1637,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24"/>
       <c r="B17" s="8" t="s">
         <v>49</v>
@@ -2684,13 +1650,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
     </row>
-    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="25" t="s">
         <v>53</v>
       </c>
@@ -2705,7 +1671,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="26"/>
       <c r="B21" s="2" t="s">
         <v>54</v>
@@ -2717,7 +1683,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="26"/>
       <c r="B22" s="2" t="s">
         <v>56</v>
@@ -2730,7 +1696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="27"/>
       <c r="B23" s="7" t="s">
         <v>57</v>
@@ -2743,32 +1709,33 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="33" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="34" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="35" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="36" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="38" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="39" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="40" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="41" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" ht="25" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A20:A23"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2777,22 +1744,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84663FF3-9C75-6142-873D-A6F98B4C6638}">
   <dimension ref="A2:L90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="57" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="15.84375" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.15234375" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="15.83203125" style="1"/>
+    <col min="3" max="3" width="36.3046875" style="1" customWidth="1"/>
+    <col min="4" max="5" width="15.84375" style="1"/>
     <col min="6" max="6" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="15.83203125" style="1"/>
+    <col min="7" max="7" width="18.4609375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.84375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="33" t="s">
         <v>77</v>
       </c>
@@ -2816,7 +1783,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34"/>
       <c r="B3" s="29"/>
       <c r="C3" s="2" t="s">
@@ -2836,7 +1803,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34"/>
       <c r="B4" s="29"/>
       <c r="C4" s="2" t="s">
@@ -2849,7 +1816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34"/>
       <c r="B5" s="29"/>
       <c r="C5" s="2" t="s">
@@ -2862,7 +1829,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34"/>
       <c r="B6" s="29"/>
       <c r="C6" s="2" t="s">
@@ -2875,7 +1842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34"/>
       <c r="B7" s="29"/>
       <c r="C7" s="2" t="s">
@@ -2894,7 +1861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34"/>
       <c r="B8" s="29"/>
       <c r="C8" s="2" t="s">
@@ -2913,10 +1880,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34"/>
     </row>
-    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34"/>
       <c r="B10" s="30" t="s">
         <v>72</v>
@@ -2931,7 +1898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="34"/>
       <c r="B11" s="31"/>
       <c r="C11" s="2" t="s">
@@ -2944,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="34"/>
       <c r="B12" s="31"/>
       <c r="C12" s="2" t="s">
@@ -2957,7 +1924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="34"/>
       <c r="B13" s="32"/>
       <c r="C13" s="2" t="s">
@@ -2970,7 +1937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="33" t="s">
         <v>78</v>
       </c>
@@ -2994,7 +1961,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="34"/>
       <c r="B16" s="23"/>
       <c r="C16" s="2" t="s">
@@ -3009,7 +1976,7 @@
       </c>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="34"/>
       <c r="B17" s="23"/>
       <c r="C17" s="2" t="s">
@@ -3028,7 +1995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="34"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
@@ -3042,7 +2009,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="34"/>
       <c r="B19" s="22" t="s">
         <v>76</v>
@@ -3058,7 +2025,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="34"/>
       <c r="B20" s="22"/>
       <c r="C20" s="5" t="s">
@@ -3069,7 +2036,7 @@
       </c>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="34"/>
       <c r="B21" s="23"/>
       <c r="C21" s="2" t="s">
@@ -3088,7 +2055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="34"/>
       <c r="B22" s="23"/>
       <c r="C22" s="2" t="s">
@@ -3107,7 +2074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="34"/>
       <c r="B23" s="23"/>
       <c r="C23" s="2" t="s">
@@ -3126,7 +2093,7 @@
         <v>87.95</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="2" t="s">
@@ -3149,7 +2116,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="2" t="s">
@@ -3172,7 +2139,7 @@
         <v>879.5</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
         <v>50</v>
       </c>
@@ -3209,7 +2176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="2" t="s">
         <v>83</v>
       </c>
@@ -3246,7 +2213,7 @@
         <v>2588</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
@@ -3283,7 +2250,7 @@
         <v>31.56</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2" t="s">
         <v>90</v>
       </c>
@@ -3304,7 +2271,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
@@ -3325,7 +2292,7 @@
         <v>152.79960494760661</v>
       </c>
     </row>
-    <row r="35" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="1">
         <v>150</v>
       </c>
@@ -3340,18 +2307,18 @@
         <v>91</v>
       </c>
     </row>
-    <row r="36" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I36" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J38" s="1">
         <f xml:space="preserve"> 10^((150-100)/35.22)</f>
         <v>26.281365573626552</v>
       </c>
     </row>
-    <row r="39" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D39" s="1" t="s">
         <v>99</v>
       </c>
@@ -3362,7 +2329,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="1" t="s">
         <v>92</v>
       </c>
@@ -3382,7 +2349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="1" t="s">
         <v>97</v>
       </c>
@@ -3407,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="1" t="s">
         <v>98</v>
       </c>
@@ -3432,7 +2399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C46" s="1" t="s">
         <v>97</v>
       </c>
@@ -3453,7 +2420,7 @@
         <v>3.3333333333333333E-2</v>
       </c>
     </row>
-    <row r="47" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="1" t="s">
         <v>98</v>
       </c>
@@ -3474,7 +2441,7 @@
         <v>6.6666666666666671E-3</v>
       </c>
     </row>
-    <row r="49" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="1" t="s">
         <v>102</v>
       </c>
@@ -3495,7 +2462,7 @@
         <v>13.365460636515913</v>
       </c>
     </row>
-    <row r="50" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="1" t="s">
         <v>104</v>
       </c>
@@ -3516,7 +2483,7 @@
         <v>1.5460636515912896E-2</v>
       </c>
     </row>
-    <row r="53" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D53" s="2" t="s">
         <v>103</v>
       </c>
@@ -3525,23 +2492,23 @@
         <v>3.5350000000000001</v>
       </c>
     </row>
-    <row r="54" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1" t="s">
@@ -3554,7 +2521,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="58" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1">
@@ -3580,7 +2547,7 @@
         <v>-8.6144403892944048</v>
       </c>
     </row>
-    <row r="59" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1">
@@ -3605,7 +2572,7 @@
         <v>-5.0958272506082736</v>
       </c>
     </row>
-    <row r="60" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F60" s="1">
         <v>3</v>
       </c>
@@ -3628,7 +2595,7 @@
         <v>-1.5772141119221419</v>
       </c>
     </row>
-    <row r="61" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F61" s="1">
         <v>4</v>
       </c>
@@ -3651,7 +2618,7 @@
         <v>1.9413990267639898</v>
       </c>
     </row>
-    <row r="62" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F62" s="1">
         <v>5</v>
       </c>
@@ -3674,7 +2641,7 @@
         <v>5.4600121654501219</v>
       </c>
     </row>
-    <row r="63" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F63" s="1">
         <v>6</v>
       </c>
@@ -3697,7 +2664,7 @@
         <v>8.9786253041362531</v>
       </c>
     </row>
-    <row r="64" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F64" s="1">
         <v>7</v>
       </c>
@@ -3720,7 +2687,7 @@
         <v>12.497238442822384</v>
       </c>
     </row>
-    <row r="65" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F65" s="1">
         <v>8</v>
       </c>
@@ -3743,7 +2710,7 @@
         <v>16.015851581508517</v>
       </c>
     </row>
-    <row r="66" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F66" s="1">
         <v>9</v>
       </c>
@@ -3766,7 +2733,7 @@
         <v>19.534464720194649</v>
       </c>
     </row>
-    <row r="67" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F67" s="1">
         <v>10</v>
       </c>
@@ -3789,7 +2756,7 @@
         <v>23.05307785888078</v>
       </c>
     </row>
-    <row r="69" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F69" s="1">
         <v>1</v>
       </c>
@@ -3810,7 +2777,7 @@
         <v>-8.8397126436781619</v>
       </c>
     </row>
-    <row r="70" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F70" s="1">
         <v>2</v>
       </c>
@@ -3830,7 +2797,7 @@
         <v>-5.3254022988505749</v>
       </c>
     </row>
-    <row r="71" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F71" s="1">
         <v>3</v>
       </c>
@@ -3850,7 +2817,7 @@
         <v>-1.8110919540229884</v>
       </c>
     </row>
-    <row r="72" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F72" s="1">
         <v>4</v>
       </c>
@@ -3870,7 +2837,7 @@
         <v>1.7032183908045981</v>
       </c>
     </row>
-    <row r="73" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F73" s="1">
         <v>5</v>
       </c>
@@ -3890,7 +2857,7 @@
         <v>5.2175287356321842</v>
       </c>
     </row>
-    <row r="74" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F74" s="1">
         <v>6</v>
       </c>
@@ -3910,7 +2877,7 @@
         <v>8.7318390804597712</v>
       </c>
     </row>
-    <row r="75" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F75" s="1">
         <v>7</v>
       </c>
@@ -3930,7 +2897,7 @@
         <v>12.246149425287358</v>
       </c>
     </row>
-    <row r="76" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F76" s="1">
         <v>8</v>
       </c>
@@ -3950,7 +2917,7 @@
         <v>15.760459770114945</v>
       </c>
     </row>
-    <row r="77" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F77" s="1">
         <v>9</v>
       </c>
@@ -3970,7 +2937,7 @@
         <v>19.27477011494253</v>
       </c>
     </row>
-    <row r="78" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F78" s="1">
         <v>10</v>
       </c>
@@ -3990,7 +2957,7 @@
         <v>22.789080459770116</v>
       </c>
     </row>
-    <row r="81" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F81" s="1">
         <v>1</v>
       </c>
@@ -4011,7 +2978,7 @@
         <v>-8.6144403892944048</v>
       </c>
     </row>
-    <row r="82" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F82" s="1">
         <v>2</v>
       </c>
@@ -4031,7 +2998,7 @@
         <v>-5.0958272506082736</v>
       </c>
     </row>
-    <row r="83" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F83" s="1">
         <v>3</v>
       </c>
@@ -4051,7 +3018,7 @@
         <v>-1.5772141119221419</v>
       </c>
     </row>
-    <row r="84" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F84" s="1">
         <v>4</v>
       </c>
@@ -4071,7 +3038,7 @@
         <v>1.9413990267639898</v>
       </c>
     </row>
-    <row r="85" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F85" s="1">
         <v>5</v>
       </c>
@@ -4091,7 +3058,7 @@
         <v>5.4600121654501219</v>
       </c>
     </row>
-    <row r="86" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F86" s="1">
         <v>6</v>
       </c>
@@ -4111,7 +3078,7 @@
         <v>8.9786253041362531</v>
       </c>
     </row>
-    <row r="87" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F87" s="1">
         <v>7</v>
       </c>
@@ -4131,7 +3098,7 @@
         <v>12.497238442822384</v>
       </c>
     </row>
-    <row r="88" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F88" s="1">
         <v>8</v>
       </c>
@@ -4151,7 +3118,7 @@
         <v>16.015851581508517</v>
       </c>
     </row>
-    <row r="89" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F89" s="1">
         <v>9</v>
       </c>
@@ -4171,7 +3138,7 @@
         <v>19.534464720194649</v>
       </c>
     </row>
-    <row r="90" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:10" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F90" s="1">
         <v>10</v>
       </c>
@@ -4200,7 +3167,7 @@
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="A15:A25"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>